--- a/Övrigt/Tidsplanering.xlsx
+++ b/Övrigt/Tidsplanering.xlsx
@@ -592,7 +592,7 @@
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Övrigt/Tidsplanering.xlsx
+++ b/Övrigt/Tidsplanering.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Vecka 11</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Fortsätter att integrera alla komponenterna i Anders prototypkoppling</t>
+  </si>
+  <si>
+    <t>Jobbade med rapporten. Skrev klart kod för att både prata med Acc och radion, radion krävde mycket tid.</t>
+  </si>
+  <si>
+    <t>Påskveckan</t>
   </si>
 </sst>
 </file>
@@ -592,7 +598,7 @@
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -676,7 +682,9 @@
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
@@ -688,7 +696,9 @@
       <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="6" t="s">
         <v>28</v>
       </c>

--- a/Övrigt/Tidsplanering.xlsx
+++ b/Övrigt/Tidsplanering.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Vecka 11</t>
   </si>
@@ -108,9 +108,6 @@
     <t xml:space="preserve">Ritar klart schemat till Kretsen </t>
   </si>
   <si>
-    <t>Läser på hur man skall tänka kring att rita RF kort</t>
-  </si>
-  <si>
     <t>Dubbelkollar kretskortet så det fungerar som det ska fungera</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Kollar på hur en låda till produkten skulle kunna se ut</t>
   </si>
   <si>
-    <t xml:space="preserve">Interagerar batterier till kortet för att göra det slutgiltiga </t>
-  </si>
-  <si>
     <t>Slutför projektet och skriver mer på rapporten</t>
   </si>
   <si>
@@ -160,6 +154,15 @@
   </si>
   <si>
     <t>Påskveckan</t>
+  </si>
+  <si>
+    <t>Har hållit på att fixa klart schemat så att Anders skulle kunna kika igenom det. Bengt har också fått en kopia.</t>
+  </si>
+  <si>
+    <t>Interagerar batterier till kortet för att göra det slutgiltiga testerna</t>
+  </si>
+  <si>
+    <t>Läser på hur man skall tänka kring att rita RF kort, skall skriva mera på rapporten så att jag har någonting att skicka till läraren. Läser på mer om kretskort och kollar mer på olika böcker.</t>
   </si>
 </sst>
 </file>
@@ -597,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,12 +609,12 @@
     <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="111.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="177.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75">
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>27</v>
@@ -683,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -697,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>28</v>
@@ -710,7 +713,9 @@
       <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
@@ -724,7 +729,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -736,7 +741,7 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -748,7 +753,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -760,7 +765,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -772,7 +777,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -784,7 +789,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -795,10 +800,10 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -810,7 +815,7 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -822,7 +827,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -834,7 +839,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -846,7 +851,7 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -858,7 +863,7 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -872,7 +877,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1"/>

--- a/Övrigt/Tidsplanering.xlsx
+++ b/Övrigt/Tidsplanering.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Vecka 11</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>Läser på hur man skall tänka kring att rita RF kort, skall skriva mera på rapporten så att jag har någonting att skicka till läraren. Läser på mer om kretskort och kollar mer på olika böcker.</t>
+  </si>
+  <si>
+    <t>Veckan gick åt att kolla in och försöka förstå vad för typ av filter som behövs till denna radio. Fortsatte rita kortet.</t>
+  </si>
+  <si>
+    <t>Arbete med att hitta rätt komponenter på olika sidor samt fortsatt beräkningar av filter och kortdesign.</t>
+  </si>
+  <si>
+    <t>Komponenterna kommer, kollar mot en utskrift så allt stämmer. Skriver mer på rapporten och lägger tid på filterdesign och på att skriva rapport.</t>
+  </si>
+  <si>
+    <t>Känner mig klar med kortet på måndag men det blir bara en beställning på komponenter på Onsdag. Kortet blir godkänt av Bengt på Onsdag också men jag har inte hunnit gjort klart Gerberfilerna än. På torsdagen beställs kortet</t>
   </si>
 </sst>
 </file>
@@ -290,7 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,6 +314,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bra" xfId="1" builtinId="26"/>
@@ -600,15 +614,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="223.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="177.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -624,7 +638,7 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -634,7 +648,7 @@
     </row>
     <row r="5" spans="2:5" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -646,7 +660,7 @@
       <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -658,7 +672,7 @@
       <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -670,7 +684,7 @@
       <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -682,7 +696,7 @@
       <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -696,7 +710,7 @@
       <c r="B10" s="7">
         <v>6</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -710,7 +724,7 @@
       <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -724,10 +738,12 @@
       <c r="B12" s="7">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>48</v>
       </c>
@@ -736,10 +752,12 @@
       <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
@@ -748,10 +766,12 @@
       <c r="B14" s="7">
         <v>10</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E14" s="6" t="s">
         <v>31</v>
       </c>
@@ -763,7 +783,9 @@
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="E15" s="6" t="s">
         <v>32</v>
       </c>
